--- a/Project.xlsx
+++ b/Project.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="101">
   <si>
     <t>1. Account Customer</t>
   </si>
@@ -418,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -441,6 +441,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1182,6 +1183,26 @@
         <v>43</v>
       </c>
     </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="12">
+        <v>7</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="7">
+        <v>15</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>27</v>
